--- a/excelv5.xlsx
+++ b/excelv5.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>aaaa</t>
     <phoneticPr fontId="1"/>
@@ -35,6 +35,10 @@
   </si>
   <si>
     <t>wn3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>st01</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -379,10 +383,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:B6"/>
+  <dimension ref="B2:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -410,6 +414,11 @@
     <row r="6" spans="2:2">
       <c r="B6" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/excelv5.xlsx
+++ b/excelv5.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>aaaa</t>
     <phoneticPr fontId="1"/>
@@ -35,6 +35,10 @@
   </si>
   <si>
     <t>wn3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bbb</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -379,10 +383,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:B6"/>
+  <dimension ref="B2:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -410,6 +414,11 @@
     <row r="6" spans="2:2">
       <c r="B6" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/excelv5.xlsx
+++ b/excelv5.xlsx
@@ -16,29 +16,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>aaaa</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>bbbb</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>dddd</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>github for win2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>wn3</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>bbb</t>
+    <t>st01</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -383,10 +363,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:B7"/>
+  <dimension ref="B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -394,31 +374,6 @@
     <row r="2" spans="2:2">
       <c r="B2" t="s">
         <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="2:2">
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2">
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2">
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2">
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2">
-      <c r="B7" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/excelv5.xlsx
+++ b/excelv5.xlsx
@@ -16,29 +16,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>aaaa</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>bbbb</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>dddd</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>github for win2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>wn3</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>bbb</t>
+    <t>gh01</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -383,10 +363,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:B7"/>
+  <dimension ref="B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -394,31 +374,6 @@
     <row r="2" spans="2:2">
       <c r="B2" t="s">
         <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="2:2">
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2">
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2">
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2">
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2">
-      <c r="B7" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/excelv5.xlsx
+++ b/excelv5.xlsx
@@ -16,9 +16,29 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>gh01</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>aaaa</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bbbb</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dddd</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>github for win2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>wn3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bbb</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -363,10 +383,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2"/>
+  <dimension ref="B2:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -374,6 +394,31 @@
     <row r="2" spans="2:2">
       <c r="B2" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/excelv5.xlsx
+++ b/excelv5.xlsx
@@ -16,9 +16,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>gh01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>st01</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -363,10 +367,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2"/>
+  <dimension ref="B2:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -374,6 +378,11 @@
     <row r="2" spans="2:2">
       <c r="B2" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/excelv5.xlsx
+++ b/excelv5.xlsx
@@ -16,9 +16,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>gh01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>gh02</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -363,10 +367,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2"/>
+  <dimension ref="B2:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -374,6 +378,11 @@
     <row r="2" spans="2:2">
       <c r="B2" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/excelv5.xlsx
+++ b/excelv5.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>gh01</t>
+    <t>st01</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -366,7 +366,7 @@
   <dimension ref="B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/excelv5.xlsx
+++ b/excelv5.xlsx
@@ -16,9 +16,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>st01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>gh01</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -363,10 +367,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2"/>
+  <dimension ref="B2:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -374,6 +378,11 @@
     <row r="2" spans="2:2">
       <c r="B2" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/excelv5.xlsx
+++ b/excelv5.xlsx
@@ -22,7 +22,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>gh01</t>
+    <t>st02</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>

--- a/excelv5.xlsx
+++ b/excelv5.xlsx
@@ -16,13 +16,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>st01</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>gh01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>gh02</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -367,10 +371,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:B3"/>
+  <dimension ref="B2:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -385,6 +389,11 @@
         <v>1</v>
       </c>
     </row>
+    <row r="4" spans="2:2">
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excelv5.xlsx
+++ b/excelv5.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>st01</t>
     <phoneticPr fontId="1"/>
@@ -27,6 +27,10 @@
   </si>
   <si>
     <t>gh02</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>gh03</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -371,10 +375,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:B4"/>
+  <dimension ref="B2:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -394,6 +398,11 @@
         <v>2</v>
       </c>
     </row>
+    <row r="5" spans="2:2">
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excelv5.xlsx
+++ b/excelv5.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>st01</t>
     <phoneticPr fontId="1"/>
@@ -27,6 +27,10 @@
   </si>
   <si>
     <t>gh02</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>st02</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -371,10 +375,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:B4"/>
+  <dimension ref="B2:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -394,6 +398,11 @@
         <v>2</v>
       </c>
     </row>
+    <row r="5" spans="2:2">
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excelv5.xlsx
+++ b/excelv5.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>st01</t>
     <phoneticPr fontId="1"/>
@@ -31,6 +31,10 @@
   </si>
   <si>
     <t>gh03</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>st02</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -375,10 +379,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:B5"/>
+  <dimension ref="B2:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -403,6 +407,11 @@
         <v>3</v>
       </c>
     </row>
+    <row r="6" spans="2:2">
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excelv5.xlsx
+++ b/excelv5.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>st01</t>
     <phoneticPr fontId="1"/>
@@ -31,6 +31,10 @@
   </si>
   <si>
     <t>gh03</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>gh04</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -375,10 +379,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:B5"/>
+  <dimension ref="B2:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -403,6 +407,11 @@
         <v>3</v>
       </c>
     </row>
+    <row r="6" spans="2:2">
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excelv5.xlsx
+++ b/excelv5.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>st01</t>
     <phoneticPr fontId="1"/>
@@ -35,6 +35,10 @@
   </si>
   <si>
     <t>st02</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>st03</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -379,10 +383,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:B6"/>
+  <dimension ref="B2:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -410,6 +414,11 @@
     <row r="6" spans="2:2">
       <c r="B6" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
